--- a/biology/Botanique/Agave_chiapensis/Agave_chiapensis.xlsx
+++ b/biology/Botanique/Agave_chiapensis/Agave_chiapensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agave chiapensis est une espèce d'agave de la famille des Agavaceae.
 Ce petit agave ne possède pas de feuilles épineuses, ce qui en fait un agave idéal pour les jardins. Sa hampe florale est démesurée (2 m) et large par rapport à sa taille.
